--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t xml:space="preserve">TestCase</t>
   </si>
@@ -62,13 +62,16 @@
     <t xml:space="preserve">KoraV2AndroidTest</t>
   </si>
   <si>
-    <t xml:space="preserve">Jayakrishna.dandru@kore.com</t>
+    <t xml:space="preserve">hana@koraqa1.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Kore@123</t>
+    <t xml:space="preserve">kora@123</t>
   </si>
   <si>
     <t xml:space="preserve">KoraV2Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">james@koraqa1.com</t>
   </si>
   <si>
     <t xml:space="preserve">s</t>
@@ -5391,7 +5394,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5430,7 +5433,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -5454,7 +5457,7 @@
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="12"/>
     </row>
@@ -8437,12 +8440,6 @@
       <c r="B1000" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Jayakrishna.dandru@kore.com"/>
-    <hyperlink ref="C2" r:id="rId2" display="Kore@123"/>
-    <hyperlink ref="B3" r:id="rId3" display="Jayakrishna.dandru@kore.com"/>
-    <hyperlink ref="C3" r:id="rId4" display="Kore@123"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -59,7 +59,7 @@
     <t xml:space="preserve">ka6MtV8cwBHY </t>
   </si>
   <si>
-    <t xml:space="preserve">KoraV2AndroidTest</t>
+    <t xml:space="preserve">KoraV2hana</t>
   </si>
   <si>
     <t xml:space="preserve">hana@koraqa1.com</t>
@@ -5394,7 +5394,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -68,7 +68,7 @@
     <t xml:space="preserve">kora@123</t>
   </si>
   <si>
-    <t xml:space="preserve">KoraV2Web</t>
+    <t xml:space="preserve">KoraV2james</t>
   </si>
   <si>
     <t xml:space="preserve">james@koraqa1.com</t>
@@ -5394,7 +5394,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -5394,7 +5394,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -5394,7 +5394,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t xml:space="preserve">TestCase</t>
   </si>
@@ -65,13 +65,16 @@
     <t xml:space="preserve">hana@koraqa1.com</t>
   </si>
   <si>
-    <t xml:space="preserve">kora@123</t>
+    <t xml:space="preserve">Kore@123</t>
   </si>
   <si>
     <t xml:space="preserve">KoraV2james</t>
   </si>
   <si>
     <t xml:space="preserve">james@koraqa1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kora@123</t>
   </si>
   <si>
     <t xml:space="preserve">s</t>
@@ -5394,7 +5397,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5436,7 +5439,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5457,7 +5460,7 @@
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="12"/>
     </row>
